--- a/LectureTime/LectureTime/bin/Debug/LectureTable.xlsx
+++ b/LectureTime/LectureTime/bin/Debug/LectureTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\82109\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\82109\Desktop\DaeWon\C# LTT\LTT_WinForm\LectureTime\LectureTime\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1BE9F70-E568-4DF7-B66E-CE2CA4E2A2F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF95F45D-1E9D-41E8-8331-62C36CBC9D73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="14880" xr2:uid="{C1A20FEE-382A-4F3D-A4BD-92C84C1FCA7B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C1A20FEE-382A-4F3D-A4BD-92C84C1FCA7B}"/>
   </bookViews>
   <sheets>
     <sheet name="LectureTable" sheetId="1" r:id="rId1"/>
@@ -20,20 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2026" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2036" uniqueCount="323">
   <si>
     <t>NO</t>
   </si>
@@ -999,6 +991,10 @@
   </si>
   <si>
     <t>광211</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1401,7 +1397,7 @@
   <dimension ref="A1:L185"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:L185"/>
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3264,8 +3260,12 @@
       <c r="H49" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="I49" s="2"/>
-      <c r="J49" s="2"/>
+      <c r="I49" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>322</v>
+      </c>
       <c r="K49" s="2" t="s">
         <v>112</v>
       </c>
@@ -4517,7 +4517,9 @@
       <c r="I82" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="J82" s="2"/>
+      <c r="J82" s="2" t="s">
+        <v>322</v>
+      </c>
       <c r="K82" s="2" t="s">
         <v>20</v>
       </c>
@@ -4553,7 +4555,9 @@
       <c r="I83" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="J83" s="2"/>
+      <c r="J83" s="2" t="s">
+        <v>322</v>
+      </c>
       <c r="K83" s="2" t="s">
         <v>23</v>
       </c>
@@ -4589,7 +4593,9 @@
       <c r="I84" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="J84" s="2"/>
+      <c r="J84" s="2" t="s">
+        <v>322</v>
+      </c>
       <c r="K84" s="2" t="s">
         <v>25</v>
       </c>
@@ -4625,7 +4631,9 @@
       <c r="I85" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="J85" s="2"/>
+      <c r="J85" s="2" t="s">
+        <v>322</v>
+      </c>
       <c r="K85" s="2" t="s">
         <v>27</v>
       </c>
@@ -4661,7 +4669,9 @@
       <c r="I86" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="J86" s="2"/>
+      <c r="J86" s="2" t="s">
+        <v>322</v>
+      </c>
       <c r="K86" s="2" t="s">
         <v>29</v>
       </c>
@@ -4697,7 +4707,9 @@
       <c r="I87" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="J87" s="2"/>
+      <c r="J87" s="2" t="s">
+        <v>322</v>
+      </c>
       <c r="K87" s="2" t="s">
         <v>31</v>
       </c>
@@ -8381,7 +8393,9 @@
       <c r="I184" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="J184" s="2"/>
+      <c r="J184" s="2" t="s">
+        <v>322</v>
+      </c>
       <c r="K184" s="2" t="s">
         <v>302</v>
       </c>
@@ -8417,7 +8431,9 @@
       <c r="I185" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="J185" s="2"/>
+      <c r="J185" s="2" t="s">
+        <v>322</v>
+      </c>
       <c r="K185" s="2" t="s">
         <v>291</v>
       </c>
